--- a/data/Subset1_WithDialogActs/Boats and Fish 4_Grade 4 .xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Boats and Fish 4_Grade 4 .xlsx_with_dialog_acts.xlsx
@@ -813,12 +813,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1459,12 +1459,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2105,12 +2105,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2143,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2257,12 +2257,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3055,12 +3055,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3397,12 +3397,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3549,12 +3549,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3815,12 +3815,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3891,12 +3891,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4279,12 +4279,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4469,12 +4469,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4549,12 +4549,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4587,12 +4587,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5397,12 +5397,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5435,12 +5435,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5625,12 +5625,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5663,12 +5663,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6233,12 +6233,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6461,12 +6461,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6845,12 +6845,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7225,12 +7225,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7453,12 +7453,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
